--- a/medicine/Enfance/Silva_Souriau/Silva_Souriau.xlsx
+++ b/medicine/Enfance/Silva_Souriau/Silva_Souriau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Silva Souriau est une écrivaine roumaine de langue française, auteure de romans populaires.
 Elle est la femme de l'illustrateur et auteur de bandes dessinées Jacques Souriau, qu'elle épousa en 1938.
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Romans pour la jeunesse
-La Mission d'Anik, ill. Jacques Souriau, Éditions de Montsouris, coll. « Lisette », n° 32, 1946.
-Diane au Caucase, ill. Jacques Souriau, Éditions de Montsouris, coll. « Lisette », n° 41, 1947.
-Bandes dessinées
-Mystère dans le Nord : Jack le pionnier, ill. Jacques Souriau, Éditions Mondiales, coll. « Aventuriers d'aujourd'hui », 1949.
-La Cité des glaces : Jack le pionnier, ill. Jacques Souriau, Éditions Mondiales, coll. « Aventuriers d'aujourd'hui », 1950[1].</t>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La Mission d'Anik, ill. Jacques Souriau, Éditions de Montsouris, coll. « Lisette », n° 32, 1946.
+Diane au Caucase, ill. Jacques Souriau, Éditions de Montsouris, coll. « Lisette », n° 41, 1947.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Silva_Souriau</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Silva_Souriau</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mystère dans le Nord : Jack le pionnier, ill. Jacques Souriau, Éditions Mondiales, coll. « Aventuriers d'aujourd'hui », 1949.
+La Cité des glaces : Jack le pionnier, ill. Jacques Souriau, Éditions Mondiales, coll. « Aventuriers d'aujourd'hui », 1950.</t>
         </is>
       </c>
     </row>
